--- a/Model_Summary.xlsx
+++ b/Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\GitHub_Repos\Project_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943EB564-8A8D-4893-8A4B-95A936172D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41791F64-F38F-49E0-8747-518673D3581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BECBC577-514E-4913-8274-B672329E4D89}"/>
   </bookViews>
@@ -740,7 +740,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="E3" s="7"/>
     </row>
